--- a/other/input/AQWMS/AQWMS_template_matching_table.xlsx
+++ b/other/input/AQWMS/AQWMS_template_matching_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="site_coordinates" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="128">
   <si>
     <t>KR RM 0 NNC</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>total nitrate/nitrite</t>
+  </si>
+  <si>
+    <t>total nitrate/nitrite-N</t>
   </si>
 </sst>
 </file>
@@ -1127,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,56 +1304,73 @@
       <c r="A29" t="s">
         <v>77</v>
       </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33">
-        <v>200.7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34">
+        <v>200.7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1524,7 +1544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
